--- a/biology/Botanique/N.Busch/N.Busch.xlsx
+++ b/biology/Botanique/N.Busch/N.Busch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nikolaï Adolfovitch Busch (en russe : Николай Адольфович Буш; en allemand: Nikolaj Adolfowitsch Busch) (Slobodskoï 29 octobre (10 novembre) 1869 - 7 août 1941 Belozersk ), est un botaniste, ptéridologue et explorateur russe qui fut membre correspondant de l'Académie des sciences d'URSS à partir de 1920.
 </t>
@@ -511,7 +523,9 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Nikolaï Busch effectue une expédition botanique importante dans le Caucase entre 1888 et 1890 avec ses collègues Nikolaï Kouznetsov (1864-1932) et Alexandre Fomine (1867-1935). Cette expédition est commandée par la Société impériale de géographie, suivie d'autres. Une partie de son énorme herbier se trouve aujourd'hui à l'université de Tartu et une autre (spécimens recueillis entre 1894 et 1896) à l'académie technico-forestière de Saint-Pétersbourg.
 Il termine ensuite ses études à l'université impériale dse Kazan en 1891, puis étudie à l'institut forestier de Saint-Pétersbourg entre 1893 et 1895. Il est reçu comme privat-docent à l'université de Iouriev (ex-Dorpat) en 1900 et devient assistant-conservateur du jardin botanique impérial de Saint-Pétersbourg en 1902. Il présente sa thèse en 1903 sur les Ranales du Caucase, ce qui lui vaut le titre de maître en botanique.
